--- a/Code/Results/Cases/Case_1_160/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_160/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.04675585419912</v>
+        <v>19.80670055787346</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.87988472498303</v>
+        <v>8.328752107955303</v>
       </c>
       <c r="E2">
-        <v>14.86420224240289</v>
+        <v>13.87563784222323</v>
       </c>
       <c r="F2">
-        <v>26.39170953288616</v>
+        <v>36.15111055731585</v>
       </c>
       <c r="G2">
-        <v>41.62752590997986</v>
+        <v>43.14642794347948</v>
       </c>
       <c r="H2">
-        <v>11.90860728932101</v>
+        <v>17.46453111729555</v>
       </c>
       <c r="I2">
-        <v>13.36641581934069</v>
+        <v>25.37782523510359</v>
       </c>
       <c r="J2">
-        <v>9.192250798740607</v>
+        <v>10.29997905330501</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16.65953846289245</v>
+        <v>14.47518540856798</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.49982185030435</v>
+        <v>19.25402173270246</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.55558168531797</v>
+        <v>8.233686616986342</v>
       </c>
       <c r="E3">
-        <v>14.22145729106103</v>
+        <v>13.6637665262217</v>
       </c>
       <c r="F3">
-        <v>25.57609242159347</v>
+        <v>36.24921599958065</v>
       </c>
       <c r="G3">
-        <v>39.34714640890506</v>
+        <v>42.95026760909532</v>
       </c>
       <c r="H3">
-        <v>11.62298544386089</v>
+        <v>17.51066600940263</v>
       </c>
       <c r="I3">
-        <v>14.0783100230747</v>
+        <v>25.61999666579085</v>
       </c>
       <c r="J3">
-        <v>8.911063718998468</v>
+        <v>10.2267740057106</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.56993818510513</v>
+        <v>14.14236088811965</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.50000077885108</v>
+        <v>18.90736832221653</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.351023150869961</v>
+        <v>8.174165538885109</v>
       </c>
       <c r="E4">
-        <v>13.81395888450371</v>
+        <v>13.53163829552898</v>
       </c>
       <c r="F4">
-        <v>25.11406130834047</v>
+        <v>36.32374210454149</v>
       </c>
       <c r="G4">
-        <v>37.96004162313699</v>
+        <v>42.85127095485308</v>
       </c>
       <c r="H4">
-        <v>11.46297457489506</v>
+        <v>17.54447411407039</v>
       </c>
       <c r="I4">
-        <v>14.52712300815798</v>
+        <v>25.77611501325435</v>
       </c>
       <c r="J4">
-        <v>8.735223182491877</v>
+        <v>10.1818199267821</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>14.89780780625624</v>
+        <v>13.93516014864188</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.08001809480675</v>
+        <v>18.76445215284522</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.266328038247837</v>
+        <v>8.149632596958224</v>
       </c>
       <c r="E5">
-        <v>13.64479309295873</v>
+        <v>13.47732617077067</v>
       </c>
       <c r="F5">
-        <v>24.93541293659372</v>
+        <v>36.35767788893053</v>
       </c>
       <c r="G5">
-        <v>37.39868843189519</v>
+        <v>42.81633713851008</v>
       </c>
       <c r="H5">
-        <v>11.40154058843226</v>
+        <v>17.55962144269306</v>
       </c>
       <c r="I5">
-        <v>14.7129756301811</v>
+        <v>25.8416066107342</v>
       </c>
       <c r="J5">
-        <v>8.662825649864113</v>
+        <v>10.16350941759291</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.61608753996354</v>
+        <v>13.85011579730696</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.00952391215426</v>
+        <v>18.74062690634602</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.252184937104403</v>
+        <v>8.145542497850361</v>
       </c>
       <c r="E6">
-        <v>13.61651975199252</v>
+        <v>13.46828066939792</v>
       </c>
       <c r="F6">
-        <v>24.90632622397359</v>
+        <v>36.36352743341933</v>
       </c>
       <c r="G6">
-        <v>37.30573251592595</v>
+        <v>42.81086326288181</v>
       </c>
       <c r="H6">
-        <v>11.39156442883556</v>
+        <v>17.5622191620169</v>
       </c>
       <c r="I6">
-        <v>14.74401568540217</v>
+        <v>25.85259466668624</v>
       </c>
       <c r="J6">
-        <v>8.650761272563761</v>
+        <v>10.16046978746984</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.56883801542715</v>
+        <v>13.83596072458522</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.4943874901385</v>
+        <v>18.90544734023119</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.349886282043007</v>
+        <v>8.17383578751754</v>
       </c>
       <c r="E7">
-        <v>13.81168985120317</v>
+        <v>13.53090766271011</v>
       </c>
       <c r="F7">
-        <v>25.11161316867834</v>
+        <v>36.32418537422082</v>
       </c>
       <c r="G7">
-        <v>37.95245429918774</v>
+        <v>42.85077791651679</v>
       </c>
       <c r="H7">
-        <v>11.46213091202125</v>
+        <v>17.54467285918077</v>
       </c>
       <c r="I7">
-        <v>14.52961747485472</v>
+        <v>25.7769906688722</v>
       </c>
       <c r="J7">
-        <v>8.734249718192995</v>
+        <v>10.18157293654322</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>14.89403999879937</v>
+        <v>13.93401552913011</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.5237535462218</v>
+        <v>19.61776049547402</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.769207714191191</v>
+        <v>8.296219250381322</v>
       </c>
       <c r="E8">
-        <v>14.64531729869695</v>
+        <v>13.80303358955159</v>
       </c>
       <c r="F8">
-        <v>26.10238198559467</v>
+        <v>36.18195576442022</v>
       </c>
       <c r="G8">
-        <v>40.83887026231373</v>
+        <v>43.0743532301158</v>
       </c>
       <c r="H8">
-        <v>11.80688486607594</v>
+        <v>17.47929613844778</v>
       </c>
       <c r="I8">
-        <v>13.60944934580814</v>
+        <v>25.4597882223662</v>
       </c>
       <c r="J8">
-        <v>9.095993942179998</v>
+        <v>10.27474526659045</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.27696599936546</v>
+        <v>14.36108075040539</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.12286111433968</v>
+        <v>20.94915034238902</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.547704126152784</v>
+        <v>8.526584753702988</v>
       </c>
       <c r="E9">
-        <v>16.17400971991929</v>
+        <v>14.31863798680183</v>
       </c>
       <c r="F9">
-        <v>28.35665391908666</v>
+        <v>36.01755447005701</v>
       </c>
       <c r="G9">
-        <v>46.58327693058344</v>
+        <v>43.68173047359871</v>
       </c>
       <c r="H9">
-        <v>12.6085011109014</v>
+        <v>17.39492120286884</v>
       </c>
       <c r="I9">
-        <v>11.89861709643252</v>
+        <v>24.89642343406171</v>
       </c>
       <c r="J9">
-        <v>9.777802794714342</v>
+        <v>10.45696391764966</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>18.89246994609234</v>
+        <v>15.17153329366813</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.61423838488403</v>
+        <v>21.87833224092905</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.093126643754948</v>
+        <v>8.689317179082183</v>
       </c>
       <c r="E10">
-        <v>17.22892804332702</v>
+        <v>14.6840679786382</v>
       </c>
       <c r="F10">
-        <v>30.20784294603734</v>
+        <v>35.96799503580236</v>
       </c>
       <c r="G10">
-        <v>50.84146841047388</v>
+        <v>44.22855115381777</v>
       </c>
       <c r="H10">
-        <v>13.2788892494287</v>
+        <v>17.36008275291013</v>
       </c>
       <c r="I10">
-        <v>10.70318905732324</v>
+        <v>24.51795258428752</v>
       </c>
       <c r="J10">
-        <v>10.25956626533126</v>
+        <v>10.58994433134802</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.63592752791941</v>
+        <v>15.74494072079803</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.69247574760829</v>
+        <v>22.28874488144628</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.335834366354836</v>
+        <v>8.761801646931159</v>
       </c>
       <c r="E11">
-        <v>17.69379645740832</v>
+        <v>14.84692962607033</v>
       </c>
       <c r="F11">
-        <v>31.09385342192691</v>
+        <v>35.96117317059532</v>
       </c>
       <c r="G11">
-        <v>52.84283533250529</v>
+        <v>44.49841692029318</v>
       </c>
       <c r="H11">
-        <v>13.6027033632815</v>
+        <v>17.35021125791974</v>
       </c>
       <c r="I11">
-        <v>10.17533616068034</v>
+        <v>24.35340134705515</v>
       </c>
       <c r="J11">
-        <v>10.47427201967011</v>
+        <v>10.65011946280194</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>21.39216096522642</v>
+        <v>15.9999577249499</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.09304312382026</v>
+        <v>22.44227086789121</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.427013456527334</v>
+        <v>8.789016978043193</v>
       </c>
       <c r="E12">
-        <v>17.86768365823071</v>
+        <v>14.90807830318919</v>
       </c>
       <c r="F12">
-        <v>31.43586192596893</v>
+        <v>35.96086826038925</v>
       </c>
       <c r="G12">
-        <v>53.60390910166327</v>
+        <v>44.60356786203717</v>
       </c>
       <c r="H12">
-        <v>13.72814747993957</v>
+        <v>17.3473383684502</v>
       </c>
       <c r="I12">
-        <v>9.978157899878147</v>
+        <v>24.29218043609276</v>
       </c>
       <c r="J12">
-        <v>10.55492382074973</v>
+        <v>10.67284975770423</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>21.67338710783999</v>
+        <v>16.09560803835678</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.00711476719444</v>
+        <v>22.40929211444166</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.407407864828008</v>
+        <v>8.783166202457235</v>
       </c>
       <c r="E13">
-        <v>17.83032903229337</v>
+        <v>14.89493271363633</v>
       </c>
       <c r="F13">
-        <v>31.36191166117496</v>
+        <v>35.96083234594003</v>
       </c>
       <c r="G13">
-        <v>53.43997219346203</v>
+        <v>44.58079146729752</v>
       </c>
       <c r="H13">
-        <v>13.70100326162673</v>
+        <v>17.34791852962071</v>
       </c>
       <c r="I13">
-        <v>10.0204943845439</v>
+        <v>24.3053169950667</v>
       </c>
       <c r="J13">
-        <v>10.53758311950446</v>
+        <v>10.66795707802788</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21.61304604749209</v>
+        <v>16.07505013024049</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.72558461699286</v>
+        <v>22.30141406365669</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.34334999344204</v>
+        <v>8.764045399433657</v>
       </c>
       <c r="E14">
-        <v>17.70814516214607</v>
+        <v>14.85197106874809</v>
       </c>
       <c r="F14">
-        <v>31.1218591716349</v>
+        <v>35.96110233243178</v>
       </c>
       <c r="G14">
-        <v>52.90543840108987</v>
+        <v>44.50700893161456</v>
       </c>
       <c r="H14">
-        <v>13.61296642803406</v>
+        <v>17.34995753210603</v>
       </c>
       <c r="I14">
-        <v>10.15905677110614</v>
+        <v>24.34834282301012</v>
       </c>
       <c r="J14">
-        <v>10.48092040388177</v>
+        <v>10.65199069700236</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>21.41539971131125</v>
+        <v>16.00784579484639</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.55213739663646</v>
+        <v>22.23508627925907</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.304019503344337</v>
+        <v>8.75230269550786</v>
       </c>
       <c r="E15">
-        <v>17.63302500711547</v>
+        <v>14.82558654218837</v>
       </c>
       <c r="F15">
-        <v>30.9756727005408</v>
+        <v>35.9615648937988</v>
       </c>
       <c r="G15">
-        <v>52.57808789627577</v>
+        <v>44.46219784697478</v>
       </c>
       <c r="H15">
-        <v>13.55941265390907</v>
+        <v>17.3513193198754</v>
       </c>
       <c r="I15">
-        <v>10.24429882267176</v>
+        <v>24.37483935096059</v>
       </c>
       <c r="J15">
-        <v>10.44612768027723</v>
+        <v>10.64220311745091</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>21.29367085957384</v>
+        <v>15.9665592122251</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.54267975790788</v>
+        <v>21.85125297518913</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.077160050991628</v>
+        <v>8.684548141308776</v>
       </c>
       <c r="E16">
-        <v>17.19824596325653</v>
+        <v>14.67335337345803</v>
       </c>
       <c r="F16">
-        <v>30.15083744505923</v>
+        <v>35.96875879532205</v>
       </c>
       <c r="G16">
-        <v>50.71448282277323</v>
+        <v>44.2113332368878</v>
       </c>
       <c r="H16">
-        <v>13.25811562993633</v>
+        <v>17.36084865376779</v>
       </c>
       <c r="I16">
-        <v>10.73803734179152</v>
+        <v>24.52885930243973</v>
       </c>
       <c r="J16">
-        <v>10.24544385231464</v>
+        <v>10.58600440178716</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.58577715195024</v>
+        <v>15.72815040809541</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.90942435045801</v>
+        <v>21.61254786241359</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.93663305546797</v>
+        <v>8.642579667336735</v>
       </c>
       <c r="E17">
-        <v>16.92767635178345</v>
+        <v>14.57907120058311</v>
       </c>
       <c r="F17">
-        <v>29.65617946934318</v>
+        <v>35.97721225457462</v>
       </c>
       <c r="G17">
-        <v>49.60266099172019</v>
+        <v>44.062791465872</v>
       </c>
       <c r="H17">
-        <v>13.0781807825868</v>
+        <v>17.36822968111278</v>
       </c>
       <c r="I17">
-        <v>11.04525014312638</v>
+        <v>24.62529339261371</v>
       </c>
       <c r="J17">
-        <v>10.12117846958008</v>
+        <v>10.55143896497616</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.14217137000388</v>
+        <v>15.58034184730139</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.53999402162132</v>
+        <v>21.47410199032947</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.855292687905148</v>
+        <v>8.618295883405059</v>
       </c>
       <c r="E18">
-        <v>16.77063592779962</v>
+        <v>14.52452715827184</v>
       </c>
       <c r="F18">
-        <v>29.3757823832264</v>
+        <v>35.98355349519048</v>
       </c>
       <c r="G18">
-        <v>48.96400480447392</v>
+        <v>43.97934678609568</v>
       </c>
       <c r="H18">
-        <v>12.97645359954147</v>
+        <v>17.37303729958404</v>
       </c>
       <c r="I18">
-        <v>11.22341805262139</v>
+        <v>24.68147692905075</v>
       </c>
       <c r="J18">
-        <v>10.04928546191953</v>
+        <v>10.53152852810616</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>19.88353985258887</v>
+        <v>15.4947820646509</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.41401299725138</v>
+        <v>21.42703320289652</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.827662945404819</v>
+        <v>8.610049313672699</v>
       </c>
       <c r="E19">
-        <v>16.71722161900563</v>
+        <v>14.50600650387269</v>
       </c>
       <c r="F19">
-        <v>29.28154739673843</v>
+        <v>35.98595398316312</v>
       </c>
       <c r="G19">
-        <v>48.74790360869024</v>
+        <v>43.951438302008</v>
       </c>
       <c r="H19">
-        <v>12.94231088021148</v>
+        <v>17.37476145635888</v>
       </c>
       <c r="I19">
-        <v>11.28398518522698</v>
+        <v>24.70062302040625</v>
       </c>
       <c r="J19">
-        <v>10.02487234831992</v>
+        <v>10.52478249685537</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>19.79536916657017</v>
+        <v>15.46572209221202</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.97737220622952</v>
+        <v>21.6380782764924</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.951645188027644</v>
+        <v>8.647062332546311</v>
       </c>
       <c r="E20">
-        <v>16.95662549186153</v>
+        <v>14.58914062780221</v>
       </c>
       <c r="F20">
-        <v>29.70840944815387</v>
+        <v>35.97615916066124</v>
       </c>
       <c r="G20">
-        <v>49.72092829159143</v>
+        <v>44.07839829636864</v>
       </c>
       <c r="H20">
-        <v>13.09715158075814</v>
+        <v>17.36738572384641</v>
       </c>
       <c r="I20">
-        <v>11.01239260266585</v>
+        <v>24.61495362306536</v>
       </c>
       <c r="J20">
-        <v>10.13445020650818</v>
+        <v>10.55512162796151</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.18975315074353</v>
+        <v>15.59613325035466</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.80848528023377</v>
+        <v>22.33315263173616</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.362184652111182</v>
+        <v>8.769668051462991</v>
       </c>
       <c r="E21">
-        <v>17.74409161472689</v>
+        <v>14.86460444853451</v>
       </c>
       <c r="F21">
-        <v>31.19219028862609</v>
+        <v>35.96096106982362</v>
       </c>
       <c r="G21">
-        <v>53.06242902336885</v>
+        <v>44.52860101604628</v>
       </c>
       <c r="H21">
-        <v>13.63874736094215</v>
+        <v>17.34933510245897</v>
       </c>
       <c r="I21">
-        <v>10.11827976974654</v>
+        <v>24.33567551616874</v>
       </c>
       <c r="J21">
-        <v>10.49758137403003</v>
+        <v>10.65668203633306</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>21.47359145911517</v>
+        <v>16.02761089471119</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.96022108683718</v>
+        <v>22.77636844259575</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.626282346303688</v>
+        <v>8.848435231453228</v>
       </c>
       <c r="E22">
-        <v>18.24624764454017</v>
+        <v>15.04156822715125</v>
       </c>
       <c r="F22">
-        <v>32.19993070684238</v>
+        <v>35.96431467047503</v>
       </c>
       <c r="G22">
-        <v>55.27890495287071</v>
+        <v>44.84003772268202</v>
       </c>
       <c r="H22">
-        <v>14.00923541826461</v>
+        <v>17.34258344917662</v>
       </c>
       <c r="I22">
-        <v>9.550077186148025</v>
+        <v>24.15950885947774</v>
       </c>
       <c r="J22">
-        <v>10.73110685696465</v>
+        <v>10.72272201083838</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.28276287210046</v>
+        <v>16.30421619219463</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.34956978613455</v>
+        <v>22.54086490600899</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.485693104267618</v>
+        <v>8.806523945660826</v>
       </c>
       <c r="E23">
-        <v>17.97937065313353</v>
+        <v>14.94741218828722</v>
       </c>
       <c r="F23">
-        <v>31.65852235920098</v>
+        <v>35.96130398043607</v>
       </c>
       <c r="G23">
-        <v>54.09550641271883</v>
+        <v>44.6722718441934</v>
       </c>
       <c r="H23">
-        <v>13.80994341340965</v>
+        <v>17.34572352195971</v>
       </c>
       <c r="I23">
-        <v>9.851661950951996</v>
+        <v>24.25295195316183</v>
       </c>
       <c r="J23">
-        <v>10.60681902173379</v>
+        <v>10.68750953471025</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>21.85357075790731</v>
+        <v>16.15710506053298</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.9466697001491</v>
+        <v>21.62653973920443</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.944859917964418</v>
+        <v>8.645036203265381</v>
       </c>
       <c r="E24">
-        <v>16.94354221579213</v>
+        <v>14.5845892957489</v>
       </c>
       <c r="F24">
-        <v>29.68478386461628</v>
+        <v>35.9766306520576</v>
       </c>
       <c r="G24">
-        <v>49.66745796951119</v>
+        <v>44.07133635636304</v>
       </c>
       <c r="H24">
-        <v>13.0885695343603</v>
+        <v>17.36776552011695</v>
       </c>
       <c r="I24">
-        <v>11.02724270568245</v>
+        <v>24.61962592047674</v>
       </c>
       <c r="J24">
-        <v>10.12845145847341</v>
+        <v>10.553456814512</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.16825264224218</v>
+        <v>15.58899576572218</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.18006121815335</v>
+        <v>20.59697111672174</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.341825201840408</v>
+        <v>8.465363425814937</v>
       </c>
       <c r="E25">
-        <v>15.77227495550335</v>
+        <v>14.18133662893487</v>
       </c>
       <c r="F25">
-        <v>27.71296742994651</v>
+        <v>36.04961553202394</v>
       </c>
       <c r="G25">
-        <v>45.02230396785374</v>
+        <v>43.4995383447858</v>
       </c>
       <c r="H25">
-        <v>12.37769667913269</v>
+        <v>17.41300796421039</v>
       </c>
       <c r="I25">
-        <v>12.35118213397993</v>
+        <v>25.04258253443787</v>
       </c>
       <c r="J25">
-        <v>9.596585100915398</v>
+        <v>10.40778303308203</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.21675186598898</v>
+        <v>14.9557740931688</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_160/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_160/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.80670055787346</v>
+        <v>24.04675585419913</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.328752107955303</v>
+        <v>7.879884724983019</v>
       </c>
       <c r="E2">
-        <v>13.87563784222323</v>
+        <v>14.86420224240287</v>
       </c>
       <c r="F2">
-        <v>36.15111055731585</v>
+        <v>26.3917095328862</v>
       </c>
       <c r="G2">
-        <v>43.14642794347948</v>
+        <v>41.62752590997991</v>
       </c>
       <c r="H2">
-        <v>17.46453111729555</v>
+        <v>11.90860728932104</v>
       </c>
       <c r="I2">
-        <v>25.37782523510359</v>
+        <v>13.36641581934079</v>
       </c>
       <c r="J2">
-        <v>10.29997905330501</v>
+        <v>9.192250798740588</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>14.47518540856798</v>
+        <v>16.65953846289246</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.25402173270246</v>
+        <v>22.49982185030434</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.233686616986342</v>
+        <v>7.55558168531796</v>
       </c>
       <c r="E3">
-        <v>13.6637665262217</v>
+        <v>14.22145729106101</v>
       </c>
       <c r="F3">
-        <v>36.24921599958065</v>
+        <v>25.5760924215936</v>
       </c>
       <c r="G3">
-        <v>42.95026760909532</v>
+        <v>39.3471464089051</v>
       </c>
       <c r="H3">
-        <v>17.51066600940263</v>
+        <v>11.62298544386094</v>
       </c>
       <c r="I3">
-        <v>25.61999666579085</v>
+        <v>14.07831002307489</v>
       </c>
       <c r="J3">
-        <v>10.2267740057106</v>
+        <v>8.911063718998431</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>14.14236088811965</v>
+        <v>15.56993818510508</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.90736832221653</v>
+        <v>21.50000077885109</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.174165538885109</v>
+        <v>7.351023150870019</v>
       </c>
       <c r="E4">
-        <v>13.53163829552898</v>
+        <v>13.81395888450363</v>
       </c>
       <c r="F4">
-        <v>36.32374210454149</v>
+        <v>25.11406130834042</v>
       </c>
       <c r="G4">
-        <v>42.85127095485308</v>
+        <v>37.96004162313692</v>
       </c>
       <c r="H4">
-        <v>17.54447411407039</v>
+        <v>11.46297457489504</v>
       </c>
       <c r="I4">
-        <v>25.77611501325435</v>
+        <v>14.52712300815788</v>
       </c>
       <c r="J4">
-        <v>10.1818199267821</v>
+        <v>8.735223182491831</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.93516014864188</v>
+        <v>14.89780780625623</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.76445215284522</v>
+        <v>21.08001809480674</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.149632596958224</v>
+        <v>7.266328038247852</v>
       </c>
       <c r="E5">
-        <v>13.47732617077067</v>
+        <v>13.64479309295884</v>
       </c>
       <c r="F5">
-        <v>36.35767788893053</v>
+        <v>24.93541293659358</v>
       </c>
       <c r="G5">
-        <v>42.81633713851008</v>
+        <v>37.39868843189515</v>
       </c>
       <c r="H5">
-        <v>17.55962144269306</v>
+        <v>11.40154058843219</v>
       </c>
       <c r="I5">
-        <v>25.8416066107342</v>
+        <v>14.71297563018097</v>
       </c>
       <c r="J5">
-        <v>10.16350941759291</v>
+        <v>8.662825649864194</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.85011579730696</v>
+        <v>14.61608753996357</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.74062690634602</v>
+        <v>21.00952391215428</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.145542497850361</v>
+        <v>7.252184937104503</v>
       </c>
       <c r="E6">
-        <v>13.46828066939792</v>
+        <v>13.61651975199251</v>
       </c>
       <c r="F6">
-        <v>36.36352743341933</v>
+        <v>24.90632622397359</v>
       </c>
       <c r="G6">
-        <v>42.81086326288181</v>
+        <v>37.30573251592587</v>
       </c>
       <c r="H6">
-        <v>17.5622191620169</v>
+        <v>11.39156442883555</v>
       </c>
       <c r="I6">
-        <v>25.85259466668624</v>
+        <v>14.7440156854021</v>
       </c>
       <c r="J6">
-        <v>10.16046978746984</v>
+        <v>8.650761272563685</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.83596072458522</v>
+        <v>14.56883801542713</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.90544734023119</v>
+        <v>21.49438749013852</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.17383578751754</v>
+        <v>7.349886282043006</v>
       </c>
       <c r="E7">
-        <v>13.53090766271011</v>
+        <v>13.81168985120312</v>
       </c>
       <c r="F7">
-        <v>36.32418537422082</v>
+        <v>25.1116131686782</v>
       </c>
       <c r="G7">
-        <v>42.85077791651679</v>
+        <v>37.95245429918761</v>
       </c>
       <c r="H7">
-        <v>17.54467285918077</v>
+        <v>11.46213091202121</v>
       </c>
       <c r="I7">
-        <v>25.7769906688722</v>
+        <v>14.52961747485453</v>
       </c>
       <c r="J7">
-        <v>10.18157293654322</v>
+        <v>8.734249718192967</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.93401552913011</v>
+        <v>14.89403999879936</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.61776049547402</v>
+        <v>23.5237535462218</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.296219250381322</v>
+        <v>7.769207714190969</v>
       </c>
       <c r="E8">
-        <v>13.80303358955159</v>
+        <v>14.64531729869694</v>
       </c>
       <c r="F8">
-        <v>36.18195576442022</v>
+        <v>26.10238198559461</v>
       </c>
       <c r="G8">
-        <v>43.0743532301158</v>
+        <v>40.83887026231377</v>
       </c>
       <c r="H8">
-        <v>17.47929613844778</v>
+        <v>11.8068848660759</v>
       </c>
       <c r="I8">
-        <v>25.4597882223662</v>
+        <v>13.60944934580803</v>
       </c>
       <c r="J8">
-        <v>10.27474526659045</v>
+        <v>9.095993942180076</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>14.36108075040539</v>
+        <v>16.27696599936546</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.94915034238902</v>
+        <v>27.12286111433964</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.526584753702988</v>
+        <v>8.547704126152777</v>
       </c>
       <c r="E9">
-        <v>14.31863798680183</v>
+        <v>16.17400971991946</v>
       </c>
       <c r="F9">
-        <v>36.01755447005701</v>
+        <v>28.35665391908672</v>
       </c>
       <c r="G9">
-        <v>43.68173047359871</v>
+        <v>46.5832769305836</v>
       </c>
       <c r="H9">
-        <v>17.39492120286884</v>
+        <v>12.60850111090137</v>
       </c>
       <c r="I9">
-        <v>24.89642343406171</v>
+        <v>11.89861709643258</v>
       </c>
       <c r="J9">
-        <v>10.45696391764966</v>
+        <v>9.777802794714434</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>15.17153329366813</v>
+        <v>18.89246994609232</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.87833224092905</v>
+        <v>29.61423838488403</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.689317179082183</v>
+        <v>9.0931266437549</v>
       </c>
       <c r="E10">
-        <v>14.6840679786382</v>
+        <v>17.2289280433271</v>
       </c>
       <c r="F10">
-        <v>35.96799503580236</v>
+        <v>30.20784294603732</v>
       </c>
       <c r="G10">
-        <v>44.22855115381777</v>
+        <v>50.84146841047386</v>
       </c>
       <c r="H10">
-        <v>17.36008275291013</v>
+        <v>13.27888924942868</v>
       </c>
       <c r="I10">
-        <v>24.51795258428752</v>
+        <v>10.70318905732324</v>
       </c>
       <c r="J10">
-        <v>10.58994433134802</v>
+        <v>10.25956626533129</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>15.74494072079803</v>
+        <v>20.6359275279194</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.28874488144628</v>
+        <v>30.69247574760836</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.761801646931159</v>
+        <v>9.335834366354739</v>
       </c>
       <c r="E11">
-        <v>14.84692962607033</v>
+        <v>17.69379645740824</v>
       </c>
       <c r="F11">
-        <v>35.96117317059532</v>
+        <v>31.09385342192691</v>
       </c>
       <c r="G11">
-        <v>44.49841692029318</v>
+        <v>52.84283533250541</v>
       </c>
       <c r="H11">
-        <v>17.35021125791974</v>
+        <v>13.60270336328149</v>
       </c>
       <c r="I11">
-        <v>24.35340134705515</v>
+        <v>10.17533616068019</v>
       </c>
       <c r="J11">
-        <v>10.65011946280194</v>
+        <v>10.47427201967013</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>15.9999577249499</v>
+        <v>21.39216096522643</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.44227086789121</v>
+        <v>31.09304312382026</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.789016978043193</v>
+        <v>9.427013456527286</v>
       </c>
       <c r="E12">
-        <v>14.90807830318919</v>
+        <v>17.86768365823065</v>
       </c>
       <c r="F12">
-        <v>35.96086826038925</v>
+        <v>31.43586192596895</v>
       </c>
       <c r="G12">
-        <v>44.60356786203717</v>
+        <v>53.60390910166345</v>
       </c>
       <c r="H12">
-        <v>17.3473383684502</v>
+        <v>13.72814747993957</v>
       </c>
       <c r="I12">
-        <v>24.29218043609276</v>
+        <v>9.978157899878006</v>
       </c>
       <c r="J12">
-        <v>10.67284975770423</v>
+        <v>10.55492382074972</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>16.09560803835678</v>
+        <v>21.67338710784005</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.40929211444166</v>
+        <v>31.0071147671945</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.783166202457235</v>
+        <v>9.407407864828052</v>
       </c>
       <c r="E13">
-        <v>14.89493271363633</v>
+        <v>17.83032903229333</v>
       </c>
       <c r="F13">
-        <v>35.96083234594003</v>
+        <v>31.36191166117496</v>
       </c>
       <c r="G13">
-        <v>44.58079146729752</v>
+        <v>53.43997219346207</v>
       </c>
       <c r="H13">
-        <v>17.34791852962071</v>
+        <v>13.70100326162669</v>
       </c>
       <c r="I13">
-        <v>24.3053169950667</v>
+        <v>10.02049438454367</v>
       </c>
       <c r="J13">
-        <v>10.66795707802788</v>
+        <v>10.5375831195044</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>16.07505013024049</v>
+        <v>21.61304604749206</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.30141406365669</v>
+        <v>30.72558461699285</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.764045399433657</v>
+        <v>9.343349993441977</v>
       </c>
       <c r="E14">
-        <v>14.85197106874809</v>
+        <v>17.70814516214609</v>
       </c>
       <c r="F14">
-        <v>35.96110233243178</v>
+        <v>31.12185917163493</v>
       </c>
       <c r="G14">
-        <v>44.50700893161456</v>
+        <v>52.90543840108985</v>
       </c>
       <c r="H14">
-        <v>17.34995753210603</v>
+        <v>13.61296642803407</v>
       </c>
       <c r="I14">
-        <v>24.34834282301012</v>
+        <v>10.15905677110612</v>
       </c>
       <c r="J14">
-        <v>10.65199069700236</v>
+        <v>10.48092040388182</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>16.00784579484639</v>
+        <v>21.41539971131116</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.23508627925907</v>
+        <v>30.55213739663647</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.75230269550786</v>
+        <v>9.304019503344369</v>
       </c>
       <c r="E15">
-        <v>14.82558654218837</v>
+        <v>17.63302500711538</v>
       </c>
       <c r="F15">
-        <v>35.9615648937988</v>
+        <v>30.97567270054083</v>
       </c>
       <c r="G15">
-        <v>44.46219784697478</v>
+        <v>52.5780878962758</v>
       </c>
       <c r="H15">
-        <v>17.3513193198754</v>
+        <v>13.55941265390908</v>
       </c>
       <c r="I15">
-        <v>24.37483935096059</v>
+        <v>10.24429882267165</v>
       </c>
       <c r="J15">
-        <v>10.64220311745091</v>
+        <v>10.44612768027715</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>15.9665592122251</v>
+        <v>21.29367085957381</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.85125297518913</v>
+        <v>29.54267975790788</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.684548141308776</v>
+        <v>9.077160050991729</v>
       </c>
       <c r="E16">
-        <v>14.67335337345803</v>
+        <v>17.19824596325654</v>
       </c>
       <c r="F16">
-        <v>35.96875879532205</v>
+        <v>30.15083744505926</v>
       </c>
       <c r="G16">
-        <v>44.2113332368878</v>
+        <v>50.71448282277328</v>
       </c>
       <c r="H16">
-        <v>17.36084865376779</v>
+        <v>13.25811562993635</v>
       </c>
       <c r="I16">
-        <v>24.52885930243973</v>
+        <v>10.73803734179149</v>
       </c>
       <c r="J16">
-        <v>10.58600440178716</v>
+        <v>10.24544385231463</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>15.72815040809541</v>
+        <v>20.58577715195024</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.61254786241359</v>
+        <v>28.90942435045793</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.642579667336735</v>
+        <v>8.936633055467905</v>
       </c>
       <c r="E17">
-        <v>14.57907120058311</v>
+        <v>16.9276763517835</v>
       </c>
       <c r="F17">
-        <v>35.97721225457462</v>
+        <v>29.65617946934321</v>
       </c>
       <c r="G17">
-        <v>44.062791465872</v>
+        <v>49.60266099172015</v>
       </c>
       <c r="H17">
-        <v>17.36822968111278</v>
+        <v>13.07818078258682</v>
       </c>
       <c r="I17">
-        <v>24.62529339261371</v>
+        <v>11.04525014312666</v>
       </c>
       <c r="J17">
-        <v>10.55143896497616</v>
+        <v>10.12117846958015</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>15.58034184730139</v>
+        <v>20.14217137000388</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.47410199032947</v>
+        <v>28.53999402162132</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.618295883405059</v>
+        <v>8.855292687905045</v>
       </c>
       <c r="E18">
-        <v>14.52452715827184</v>
+        <v>16.77063592779958</v>
       </c>
       <c r="F18">
-        <v>35.98355349519048</v>
+        <v>29.37578238322643</v>
       </c>
       <c r="G18">
-        <v>43.97934678609568</v>
+        <v>48.9640048044739</v>
       </c>
       <c r="H18">
-        <v>17.37303729958404</v>
+        <v>12.97645359954148</v>
       </c>
       <c r="I18">
-        <v>24.68147692905075</v>
+        <v>11.22341805262135</v>
       </c>
       <c r="J18">
-        <v>10.53152852810616</v>
+        <v>10.04928546191955</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>15.4947820646509</v>
+        <v>19.88353985258878</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.42703320289652</v>
+        <v>28.41401299725143</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.610049313672699</v>
+        <v>8.82766294540483</v>
       </c>
       <c r="E19">
-        <v>14.50600650387269</v>
+        <v>16.71722161900557</v>
       </c>
       <c r="F19">
-        <v>35.98595398316312</v>
+        <v>29.28154739673842</v>
       </c>
       <c r="G19">
-        <v>43.951438302008</v>
+        <v>48.74790360869027</v>
       </c>
       <c r="H19">
-        <v>17.37476145635888</v>
+        <v>12.94231088021148</v>
       </c>
       <c r="I19">
-        <v>24.70062302040625</v>
+        <v>11.28398518522683</v>
       </c>
       <c r="J19">
-        <v>10.52478249685537</v>
+        <v>10.02487234831991</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>15.46572209221202</v>
+        <v>19.79536916657021</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.6380782764924</v>
+        <v>28.9773722062295</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.647062332546311</v>
+        <v>8.951645188027644</v>
       </c>
       <c r="E20">
-        <v>14.58914062780221</v>
+        <v>16.9566254918616</v>
       </c>
       <c r="F20">
-        <v>35.97615916066124</v>
+        <v>29.7084094481539</v>
       </c>
       <c r="G20">
-        <v>44.07839829636864</v>
+        <v>49.72092829159148</v>
       </c>
       <c r="H20">
-        <v>17.36738572384641</v>
+        <v>13.09715158075816</v>
       </c>
       <c r="I20">
-        <v>24.61495362306536</v>
+        <v>11.01239260266586</v>
       </c>
       <c r="J20">
-        <v>10.55512162796151</v>
+        <v>10.13445020650821</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>15.59613325035466</v>
+        <v>20.18975315074351</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.33315263173616</v>
+        <v>30.80848528023378</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.769668051462991</v>
+        <v>9.362184652111148</v>
       </c>
       <c r="E21">
-        <v>14.86460444853451</v>
+        <v>17.74409161472696</v>
       </c>
       <c r="F21">
-        <v>35.96096106982362</v>
+        <v>31.19219028862608</v>
       </c>
       <c r="G21">
-        <v>44.52860101604628</v>
+        <v>53.06242902336897</v>
       </c>
       <c r="H21">
-        <v>17.34933510245897</v>
+        <v>13.63874736094211</v>
       </c>
       <c r="I21">
-        <v>24.33567551616874</v>
+        <v>10.11827976974641</v>
       </c>
       <c r="J21">
-        <v>10.65668203633306</v>
+        <v>10.49758137403011</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>16.02761089471119</v>
+        <v>21.47359145911519</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.77636844259575</v>
+        <v>31.96022108683719</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.848435231453228</v>
+        <v>9.6262823463037</v>
       </c>
       <c r="E22">
-        <v>15.04156822715125</v>
+        <v>18.24624764454012</v>
       </c>
       <c r="F22">
-        <v>35.96431467047503</v>
+        <v>32.19993070684239</v>
       </c>
       <c r="G22">
-        <v>44.84003772268202</v>
+        <v>55.27890495287075</v>
       </c>
       <c r="H22">
-        <v>17.34258344917662</v>
+        <v>14.00923541826462</v>
       </c>
       <c r="I22">
-        <v>24.15950885947774</v>
+        <v>9.550077186147982</v>
       </c>
       <c r="J22">
-        <v>10.72272201083838</v>
+        <v>10.73110685696461</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>16.30421619219463</v>
+        <v>22.28276287210048</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.54086490600899</v>
+        <v>31.34956978613454</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.806523945660826</v>
+        <v>9.485693104267668</v>
       </c>
       <c r="E23">
-        <v>14.94741218828722</v>
+        <v>17.97937065313353</v>
       </c>
       <c r="F23">
-        <v>35.96130398043607</v>
+        <v>31.65852235920103</v>
       </c>
       <c r="G23">
-        <v>44.6722718441934</v>
+        <v>54.09550641271892</v>
       </c>
       <c r="H23">
-        <v>17.34572352195971</v>
+        <v>13.80994341340971</v>
       </c>
       <c r="I23">
-        <v>24.25295195316183</v>
+        <v>9.851661950951977</v>
       </c>
       <c r="J23">
-        <v>10.68750953471025</v>
+        <v>10.60681902173374</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>16.15710506053298</v>
+        <v>21.85357075790734</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.62653973920443</v>
+        <v>28.9466697001491</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.645036203265381</v>
+        <v>8.944859917964298</v>
       </c>
       <c r="E24">
-        <v>14.5845892957489</v>
+        <v>16.94354221579202</v>
       </c>
       <c r="F24">
-        <v>35.9766306520576</v>
+        <v>29.68478386461635</v>
       </c>
       <c r="G24">
-        <v>44.07133635636304</v>
+        <v>49.66745796951137</v>
       </c>
       <c r="H24">
-        <v>17.36776552011695</v>
+        <v>13.08856953436029</v>
       </c>
       <c r="I24">
-        <v>24.61962592047674</v>
+        <v>11.02724270568232</v>
       </c>
       <c r="J24">
-        <v>10.553456814512</v>
+        <v>10.12845145847337</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>15.58899576572218</v>
+        <v>20.16825264224222</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.59697111672174</v>
+        <v>26.18006121815334</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.465363425814937</v>
+        <v>8.34182520184031</v>
       </c>
       <c r="E25">
-        <v>14.18133662893487</v>
+        <v>15.77227495550333</v>
       </c>
       <c r="F25">
-        <v>36.04961553202394</v>
+        <v>27.71296742994649</v>
       </c>
       <c r="G25">
-        <v>43.4995383447858</v>
+        <v>45.02230396785372</v>
       </c>
       <c r="H25">
-        <v>17.41300796421039</v>
+        <v>12.37769667913267</v>
       </c>
       <c r="I25">
-        <v>25.04258253443787</v>
+        <v>12.35118213397982</v>
       </c>
       <c r="J25">
-        <v>10.40778303308203</v>
+        <v>9.596585100915437</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.9557740931688</v>
+        <v>18.21675186598896</v>
       </c>
       <c r="M25">
         <v>0</v>
